--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>1.979074033580819</v>
       </c>
       <c r="AG17">
-        <v>2.980209378995857</v>
+        <v>3.265677646667919</v>
       </c>
       <c r="AH17">
         <v>3.647228437274408</v>
@@ -2451,19 +2451,19 @@
         <v>0.8024032015999882</v>
       </c>
       <c r="AG18">
-        <v>2.026374749120596</v>
+        <v>5.715169758464977</v>
       </c>
       <c r="AH18">
-        <v>3.673004547855219</v>
+        <v>3.828814763561761</v>
       </c>
       <c r="AI18">
-        <v>2.128447415063373</v>
+        <v>0.297438131004113</v>
       </c>
       <c r="AJ18">
-        <v>2.552476296061434</v>
+        <v>2.091985819293041</v>
       </c>
       <c r="AK18">
-        <v>1.954146674711188</v>
+        <v>2.62544141464085</v>
       </c>
       <c r="AL18">
         <v>2.777797690741424</v>
@@ -2522,31 +2522,31 @@
         <v>0.8024032015999882</v>
       </c>
       <c r="AG19">
-        <v>1.407367160964146</v>
+        <v>5.928146717120142</v>
       </c>
       <c r="AH19">
-        <v>2.829537440100061</v>
+        <v>3.07601938588149</v>
       </c>
       <c r="AI19">
-        <v>2.829537440100038</v>
+        <v>-2.009776081564674</v>
       </c>
       <c r="AJ19">
-        <v>3.086122033237126</v>
+        <v>0.8023688159249254</v>
       </c>
       <c r="AK19">
-        <v>-1.871731962523027</v>
+        <v>6.778609849419781</v>
       </c>
       <c r="AL19">
-        <v>1.579011422502852</v>
+        <v>-5.123136062091282</v>
       </c>
       <c r="AM19">
-        <v>1.014265466411501</v>
+        <v>2.475264839201441</v>
       </c>
       <c r="AN19">
-        <v>0.3901728183783204</v>
+        <v>0.06579575777909685</v>
       </c>
       <c r="AO19">
-        <v>2.69102598245059</v>
+        <v>3.119113392553619</v>
       </c>
       <c r="AP19">
         <v>0.6994919452575576</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>2.829537440100061</v>
-      </c>
       <c r="AJ20">
-        <v>3.238605209599998</v>
+        <v>0.8023688159249032</v>
       </c>
       <c r="AK20">
-        <v>-3.161804390400003</v>
+        <v>7.437479026319016</v>
       </c>
       <c r="AL20">
-        <v>2.015050062499957</v>
+        <v>-8.583073115451544</v>
       </c>
       <c r="AM20">
-        <v>6.661338147750939E-14</v>
+        <v>3.88777093019641</v>
       </c>
       <c r="AN20">
-        <v>1.906002353653125</v>
+        <v>0.2740865344839527</v>
       </c>
       <c r="AO20">
-        <v>3.932998599265303</v>
+        <v>9.57101224363932</v>
       </c>
       <c r="AP20">
-        <v>-2.087978868409623</v>
+        <v>0.3969573948624072</v>
       </c>
       <c r="AQ20">
-        <v>-0.6123001687638907</v>
+        <v>1.076435582022306</v>
       </c>
       <c r="AR20">
-        <v>-1.906744368254853</v>
+        <v>-7.338081973668542</v>
       </c>
       <c r="AS20">
-        <v>-1.669605379075589</v>
+        <v>-1.650648527511467</v>
       </c>
       <c r="AT20">
         <v>-1.432689847121871</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>6.661338147750939E-14</v>
-      </c>
       <c r="AN21">
-        <v>2.015050062500068</v>
+        <v>0.2740865344839749</v>
       </c>
       <c r="AO21">
-        <v>2.829537440100038</v>
+        <v>9.711183328723404</v>
       </c>
       <c r="AP21">
-        <v>-3.94039899999995</v>
+        <v>-2.235060351241103E-05</v>
       </c>
       <c r="AQ21">
-        <v>-1.985049937500016</v>
+        <v>2.516861149382388</v>
       </c>
       <c r="AR21">
-        <v>9.556389850000446</v>
+        <v>-18.16237400185398</v>
       </c>
       <c r="AS21">
-        <v>-0.4516362914963601</v>
+        <v>-0.2006752520846367</v>
       </c>
       <c r="AT21">
-        <v>0.1172571542027212</v>
+        <v>0.1752798163574099</v>
       </c>
       <c r="AU21">
-        <v>0.5893837960974757</v>
+        <v>1.266436499884915</v>
       </c>
       <c r="AV21">
-        <v>1.152760694685062</v>
+        <v>0.6787613333699927</v>
       </c>
       <c r="AW21">
-        <v>1.780300968358017</v>
+        <v>2.019219802844563</v>
       </c>
       <c r="AX21">
         <v>2.033479419175133</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-1.985049937499983</v>
-      </c>
       <c r="AR22">
-        <v>11.67924226560002</v>
+        <v>-18.16237400185397</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>0.3102193542589671</v>
       </c>
       <c r="AT22">
-        <v>0.8024032016000104</v>
+        <v>0.8957922836469567</v>
       </c>
       <c r="AU22">
-        <v>-0.3994003998999518</v>
+        <v>1.396505962682815</v>
       </c>
       <c r="AV22">
-        <v>0.6444718444275521</v>
+        <v>-1.696610696428325</v>
       </c>
       <c r="AW22">
-        <v>0.8104204674762139</v>
+        <v>3.906556425946905</v>
       </c>
       <c r="AX22">
-        <v>1.317145539573517</v>
+        <v>2.166483625738302</v>
       </c>
       <c r="AY22">
-        <v>2.506151357112452</v>
+        <v>3.147579643557941</v>
       </c>
       <c r="AZ22">
-        <v>2.287212358310953</v>
+        <v>1.643634172128272</v>
       </c>
       <c r="BA22">
-        <v>2.481068287768839</v>
+        <v>2.581716327283545</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.3994003998999518</v>
-      </c>
       <c r="AV23">
-        <v>0.8024032016000104</v>
+        <v>-1.696610696428313</v>
       </c>
       <c r="AW23">
-        <v>0.4006004000999708</v>
+        <v>4.203378578482475</v>
       </c>
       <c r="AX23">
-        <v>0.4006004000999486</v>
+        <v>1.748821047714721</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1.674449191465355</v>
       </c>
       <c r="AZ23">
-        <v>1.801540135156521</v>
+        <v>-1.362365718491865</v>
       </c>
       <c r="BA23">
-        <v>1.642273543406181</v>
+        <v>2.939709541563884</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
       <c r="AZ24">
-        <v>2.015050062499957</v>
+        <v>-1.362365718491854</v>
       </c>
       <c r="BA24">
-        <v>1.609625625600097</v>
+        <v>3.205589308837764</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>-0.230025199663797</v>
+      </c>
+      <c r="C3">
+        <v>5.125398993052044</v>
+      </c>
+      <c r="D3">
+        <v>3.386383090739975</v>
+      </c>
+      <c r="E3">
+        <v>0.8787496612563173</v>
+      </c>
+      <c r="F3">
+        <v>2.533533936850585</v>
+      </c>
+      <c r="G3">
+        <v>3.301378284238377</v>
+      </c>
+      <c r="H3">
+        <v>2.91440374919274</v>
+      </c>
+      <c r="I3">
+        <v>2.81184912859318</v>
+      </c>
+      <c r="J3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="K3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="L3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="M3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="N3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="O3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="P3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Q3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="R3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="S3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="T3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="U3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="V3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="W3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="X3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Y3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Z3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AA3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AB3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AC3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AD3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AE3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AF3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AG3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AH3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AI3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AJ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AK3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AL3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AM3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AN3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AO3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AP3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AQ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AR3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AS3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AT3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AU3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AV3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AW3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AX3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AY3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AZ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="BA3">
+        <v>3.311198277644523</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.75539628881467</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>1.961221950981917</v>
+        <v>5.125398993052022</v>
       </c>
       <c r="D4">
-        <v>1.916016605030801</v>
+        <v>3.282884041948231</v>
       </c>
       <c r="E4">
-        <v>1.840904387006637</v>
+        <v>1.013823151053028</v>
       </c>
       <c r="F4">
-        <v>1.482570748730971</v>
+        <v>0.9842934829757288</v>
       </c>
       <c r="G4">
-        <v>1.482570748730971</v>
+        <v>2.723861837742825</v>
       </c>
       <c r="H4">
-        <v>1.482570748730971</v>
+        <v>2.088987486264915</v>
       </c>
       <c r="I4">
-        <v>1.482570748730971</v>
+        <v>2.088206305536122</v>
       </c>
       <c r="J4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="K4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="L4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="M4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="N4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="O4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="P4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Q4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="R4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="S4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="T4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="U4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="V4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="W4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="X4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Y4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Z4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AB4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AC4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AD4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AE4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AF4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AG4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AH4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AI4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AJ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AK4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AL4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AM4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AN4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AO4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AP4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AQ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AR4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AS4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AT4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AU4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AV4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AW4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AX4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AY4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AZ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="BA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>0.2337905658324813</v>
-      </c>
-      <c r="C5">
-        <v>2.071001150990881</v>
-      </c>
-      <c r="D5">
-        <v>2.213911448916162</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.883193296444685</v>
+        <v>1.013823151053073</v>
       </c>
       <c r="F5">
-        <v>1.795947358965178</v>
+        <v>0.4750714363439323</v>
       </c>
       <c r="G5">
-        <v>1.564959442678782</v>
+        <v>4.356912452939454</v>
       </c>
       <c r="H5">
-        <v>1.533729034589149</v>
+        <v>3.612753212925446</v>
       </c>
       <c r="I5">
-        <v>1.533729034589149</v>
+        <v>2.431458940166964</v>
       </c>
       <c r="J5">
-        <v>1.533729034589149</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="K5">
-        <v>1.533729034589149</v>
+        <v>1.037234054664249</v>
       </c>
       <c r="L5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="M5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="N5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="O5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="P5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Q5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="R5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="S5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="T5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="U5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="V5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="W5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="X5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Y5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Z5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AB5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AC5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AD5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AE5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AF5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AG5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AH5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AI5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AJ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AK5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AL5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AM5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AN5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AO5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AP5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AQ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AR5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AS5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AT5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AU5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AV5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AW5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AX5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AY5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AZ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="BA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>-0.2300251996637859</v>
-      </c>
-      <c r="C6">
-        <v>5.125398993052044</v>
-      </c>
-      <c r="D6">
-        <v>3.386383090739953</v>
-      </c>
-      <c r="E6">
-        <v>0.8787496612562951</v>
-      </c>
-      <c r="F6">
-        <v>2.533533936850563</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>3.301378284238399</v>
+        <v>4.356912452939454</v>
       </c>
       <c r="H6">
-        <v>2.914403749192762</v>
+        <v>4.559829885941435</v>
       </c>
       <c r="I6">
-        <v>2.811849128593202</v>
+        <v>5.259925231829876</v>
       </c>
       <c r="J6">
-        <v>3.311198277644523</v>
+        <v>2.158838189283219</v>
       </c>
       <c r="K6">
-        <v>3.311198277644523</v>
+        <v>1.447930496829564</v>
       </c>
       <c r="L6">
-        <v>3.311198277644523</v>
+        <v>1.196776590518644</v>
       </c>
       <c r="M6">
-        <v>3.311198277644523</v>
+        <v>1.267488427675878</v>
       </c>
       <c r="N6">
-        <v>3.311198277644523</v>
+        <v>1.198510571931855</v>
       </c>
       <c r="O6">
-        <v>3.311198277644523</v>
+        <v>1.152798198102345</v>
       </c>
       <c r="P6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Q6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="R6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="S6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="T6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="U6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="V6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="W6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="X6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Y6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Z6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AB6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AC6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AD6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AE6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AF6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AG6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AH6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AI6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AJ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AK6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AL6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AM6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AN6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AO6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AP6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AQ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AR6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AS6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AT6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AU6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AV6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AW6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AX6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AY6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AZ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="BA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>5.125398993052044</v>
-      </c>
-      <c r="D7">
-        <v>3.282884041948253</v>
-      </c>
-      <c r="E7">
-        <v>1.013823151053095</v>
-      </c>
-      <c r="F7">
-        <v>0.984293482975751</v>
-      </c>
-      <c r="G7">
-        <v>2.723861837742825</v>
-      </c>
-      <c r="H7">
-        <v>2.088987486264915</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.0882063055361</v>
+        <v>5.259925231829876</v>
       </c>
       <c r="J7">
-        <v>2.201049854143089</v>
+        <v>2.231131877350312</v>
       </c>
       <c r="K7">
-        <v>2.201049854143089</v>
+        <v>0.7814198158142105</v>
       </c>
       <c r="L7">
-        <v>2.295764853811622</v>
+        <v>1.194058515117313</v>
       </c>
       <c r="M7">
-        <v>2.295764853811622</v>
+        <v>0.3494148569448852</v>
       </c>
       <c r="N7">
-        <v>2.295764853811622</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="O7">
-        <v>2.295764853811622</v>
+        <v>0.4980533509886476</v>
       </c>
       <c r="P7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Q7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="R7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="S7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="T7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="U7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="V7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="W7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="X7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Y7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Z7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AB7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AC7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AD7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AE7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AF7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AG7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AH7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AI7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AJ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AK7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AL7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AM7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AN7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AO7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AP7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AQ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AR7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AS7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AT7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AU7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AV7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AW7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AX7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AY7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AZ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="BA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>1.01382315105305</v>
-      </c>
-      <c r="F8">
-        <v>0.4750714363438879</v>
-      </c>
-      <c r="G8">
-        <v>4.356912452939476</v>
-      </c>
-      <c r="H8">
-        <v>3.612753212925401</v>
-      </c>
-      <c r="I8">
-        <v>2.431458940167008</v>
-      </c>
-      <c r="J8">
-        <v>1.212544822741002</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.037234054664249</v>
+        <v>0.7814198158142105</v>
       </c>
       <c r="L8">
-        <v>0.9863459896782389</v>
+        <v>1.501198019890748</v>
       </c>
       <c r="M8">
-        <v>0.9863459896782389</v>
+        <v>-0.563208905821222</v>
       </c>
       <c r="N8">
-        <v>0.9560359274609853</v>
+        <v>1.409662779709797</v>
       </c>
       <c r="O8">
-        <v>0.9560359274609853</v>
+        <v>0.6742451383204839</v>
       </c>
       <c r="P8">
-        <v>0.9560359274609853</v>
+        <v>0.8783377572271434</v>
       </c>
       <c r="Q8">
-        <v>0.9560359274609853</v>
+        <v>0.8490610167197987</v>
       </c>
       <c r="R8">
-        <v>0.9560359274609853</v>
+        <v>1.039829377018497</v>
       </c>
       <c r="S8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="T8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="U8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="V8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="W8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="X8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Y8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Z8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AB8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AC8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AD8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AE8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AF8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AG8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AH8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AI8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AJ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AK8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AL8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AM8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AN8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AO8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AP8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AQ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AR8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AS8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AT8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AU8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AV8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AW8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AX8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AY8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AZ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="BA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>4.356912452939476</v>
-      </c>
-      <c r="H9">
-        <v>4.559829885941435</v>
-      </c>
-      <c r="I9">
-        <v>5.259925231829898</v>
-      </c>
-      <c r="J9">
-        <v>2.158838189283174</v>
-      </c>
-      <c r="K9">
-        <v>1.447930496829541</v>
-      </c>
-      <c r="L9">
-        <v>1.196776590518644</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.267488427675856</v>
+        <v>-0.5632089058212553</v>
       </c>
       <c r="N9">
-        <v>1.19851057193181</v>
+        <v>1.825355006721852</v>
       </c>
       <c r="O9">
-        <v>1.152798198102301</v>
+        <v>1.713290556413583</v>
       </c>
       <c r="P9">
-        <v>1.334310112364046</v>
+        <v>2.372074663906587</v>
       </c>
       <c r="Q9">
-        <v>1.334310112364046</v>
+        <v>2.178094576990031</v>
       </c>
       <c r="R9">
-        <v>1.334310112364046</v>
+        <v>2.29066283401107</v>
       </c>
       <c r="S9">
-        <v>1.334310112364046</v>
+        <v>2.26461104984752</v>
       </c>
       <c r="T9">
-        <v>1.334310112364046</v>
+        <v>2.180625196942776</v>
       </c>
       <c r="U9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="V9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="W9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="X9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Y9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Z9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AB9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AC9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AD9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AE9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AF9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AG9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AH9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AI9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AJ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AK9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AL9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AM9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AN9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AO9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AP9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AQ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AR9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AS9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AT9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AU9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AV9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AW9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AX9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AY9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AZ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="BA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>5.259925231829876</v>
-      </c>
-      <c r="J10">
-        <v>2.231131877350334</v>
-      </c>
-      <c r="K10">
-        <v>0.7814198158142105</v>
-      </c>
-      <c r="L10">
-        <v>1.194058515117336</v>
-      </c>
-      <c r="M10">
-        <v>0.3494148569448852</v>
-      </c>
-      <c r="N10">
-        <v>0.4712609263772594</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.4980533509886476</v>
+        <v>1.713290556413583</v>
       </c>
       <c r="P10">
-        <v>0.8625324730765938</v>
+        <v>2.57369984095106</v>
       </c>
       <c r="Q10">
-        <v>0.8625324730765938</v>
+        <v>2.743122680804988</v>
       </c>
       <c r="R10">
-        <v>0.8625324730765938</v>
+        <v>4.595879021798344</v>
       </c>
       <c r="S10">
-        <v>0.8625324730765938</v>
+        <v>2.623600596229347</v>
       </c>
       <c r="T10">
-        <v>0.8625324730765938</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="U10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="V10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="W10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="X10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Y10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Z10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AB10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AC10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AD10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AE10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AF10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AG10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AH10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AI10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AJ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AK10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AL10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AM10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AN10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AO10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AP10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AQ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AR10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AS10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AT10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AU10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AV10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AW10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AX10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AY10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AZ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="BA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>0.7814198158141883</v>
-      </c>
-      <c r="L11">
-        <v>1.501198019890748</v>
-      </c>
-      <c r="M11">
-        <v>-0.5632089058212553</v>
-      </c>
-      <c r="N11">
-        <v>1.409662779709819</v>
-      </c>
-      <c r="O11">
-        <v>0.6742451383205061</v>
-      </c>
-      <c r="P11">
-        <v>0.8783377572271434</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.8490610167197987</v>
+        <v>2.743122680804966</v>
       </c>
       <c r="R11">
-        <v>1.039829377018475</v>
+        <v>5.116883346393886</v>
       </c>
       <c r="S11">
-        <v>1.127663699749415</v>
+        <v>1.891220645890002</v>
       </c>
       <c r="T11">
-        <v>1.127663699749415</v>
+        <v>4.034919509273061</v>
       </c>
       <c r="U11">
-        <v>1.127663699749415</v>
+        <v>1.715791310593251</v>
       </c>
       <c r="V11">
-        <v>1.127663699749415</v>
+        <v>1.336316831462692</v>
       </c>
       <c r="W11">
-        <v>1.127663699749415</v>
+        <v>1.59195091403983</v>
       </c>
       <c r="X11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Y11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Z11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AB11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AC11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AD11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AE11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AF11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AG11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AH11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AI11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AJ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AK11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AL11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AM11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AN11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AO11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AP11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AQ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AR11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AS11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AT11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AU11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AV11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AW11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AX11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AY11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AZ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="BA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-0.5632089058212331</v>
-      </c>
-      <c r="N12">
-        <v>1.825355006721852</v>
-      </c>
-      <c r="O12">
-        <v>1.713290556413605</v>
-      </c>
-      <c r="P12">
-        <v>2.372074663906587</v>
-      </c>
-      <c r="Q12">
-        <v>2.178094576990031</v>
-      </c>
-      <c r="R12">
-        <v>2.29066283401107</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.26461104984752</v>
+        <v>1.891220645890002</v>
       </c>
       <c r="T12">
-        <v>2.180625196942776</v>
+        <v>3.894160553774761</v>
       </c>
       <c r="U12">
-        <v>2.036722793063239</v>
+        <v>1.687339605296501</v>
       </c>
       <c r="V12">
-        <v>2.036722793063239</v>
+        <v>0.02883756256673031</v>
       </c>
       <c r="W12">
-        <v>2.036722793063239</v>
+        <v>1.862609889357336</v>
       </c>
       <c r="X12">
-        <v>2.036722793063239</v>
+        <v>0.3317798769387315</v>
       </c>
       <c r="Y12">
-        <v>2.036722793063239</v>
+        <v>1.369357173039498</v>
       </c>
       <c r="Z12">
-        <v>2.036722793063239</v>
+        <v>1.197912858979611</v>
       </c>
       <c r="AA12">
-        <v>2.036722793063239</v>
+        <v>1.15809427190452</v>
       </c>
       <c r="AB12">
-        <v>2.036722793063239</v>
+        <v>1.173141108194797</v>
       </c>
       <c r="AC12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AD12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AE12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AF12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AG12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AH12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AI12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AJ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AK12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AL12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AM12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AN12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AO12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AP12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AQ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AR12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AS12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AT12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AU12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AV12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AW12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AX12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AY12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AZ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="BA12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>1.71329055641356</v>
-      </c>
-      <c r="P13">
-        <v>2.573699840951083</v>
-      </c>
-      <c r="Q13">
-        <v>2.743122680804988</v>
-      </c>
-      <c r="R13">
-        <v>4.595879021798321</v>
-      </c>
-      <c r="S13">
-        <v>2.623600596229347</v>
-      </c>
-      <c r="T13">
-        <v>4.109890522944348</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>4.211110015923025</v>
+        <v>1.687339605296501</v>
       </c>
       <c r="V13">
-        <v>4.211110015923025</v>
+        <v>-0.1413199423556555</v>
       </c>
       <c r="W13">
-        <v>4.211110015923025</v>
+        <v>2.016108144125295</v>
       </c>
       <c r="X13">
-        <v>4.211110015923025</v>
+        <v>-2.079848588862143</v>
       </c>
       <c r="Y13">
-        <v>4.211110015923025</v>
+        <v>2.147322685428366</v>
       </c>
       <c r="Z13">
-        <v>4.211110015923025</v>
+        <v>0.9262553939923146</v>
       </c>
       <c r="AA13">
-        <v>4.211110015923025</v>
+        <v>4.206171608278875</v>
       </c>
       <c r="AB13">
-        <v>4.211110015923025</v>
+        <v>0.893498267486792</v>
       </c>
       <c r="AC13">
-        <v>4.211110015923025</v>
+        <v>1.749048192229496</v>
       </c>
       <c r="AD13">
-        <v>4.211110015923025</v>
+        <v>1.727537197898665</v>
       </c>
       <c r="AE13">
-        <v>4.211110015923025</v>
+        <v>2.066130269500577</v>
       </c>
       <c r="AF13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AG13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AH13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AI13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AJ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AK13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AL13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AM13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AN13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AO13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AP13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AQ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AR13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AS13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AT13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AU13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AV13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AW13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AX13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AY13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AZ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="BA13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.743122680804966</v>
-      </c>
-      <c r="R14">
-        <v>5.116883346393863</v>
-      </c>
-      <c r="S14">
-        <v>1.891220645890002</v>
-      </c>
-      <c r="T14">
-        <v>4.034919509273061</v>
-      </c>
-      <c r="U14">
-        <v>1.715791310593229</v>
-      </c>
-      <c r="V14">
-        <v>1.336316831462692</v>
-      </c>
-      <c r="W14">
-        <v>1.591950914039808</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.551589743072834</v>
+        <v>-2.079848588862176</v>
       </c>
       <c r="Y14">
-        <v>1.551589743072834</v>
+        <v>2.362248329113537</v>
       </c>
       <c r="Z14">
-        <v>1.551589743072834</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="AA14">
-        <v>1.551589743072834</v>
+        <v>6.673057635354218</v>
       </c>
       <c r="AB14">
-        <v>1.551589743072834</v>
+        <v>-1.194610791899986</v>
       </c>
       <c r="AC14">
-        <v>1.551589743072834</v>
+        <v>2.097071260293459</v>
       </c>
       <c r="AD14">
-        <v>1.551589743072834</v>
+        <v>2.928189816005689</v>
       </c>
       <c r="AE14">
-        <v>1.551589743072834</v>
+        <v>2.306826470345391</v>
       </c>
       <c r="AF14">
-        <v>1.551589743072834</v>
+        <v>1.979074033580819</v>
       </c>
       <c r="AG14">
-        <v>1.551589743072834</v>
+        <v>3.265677646667942</v>
       </c>
       <c r="AH14">
-        <v>1.551589743072834</v>
+        <v>3.647228437274408</v>
       </c>
       <c r="AI14">
-        <v>1.551589743072834</v>
+        <v>3.289483383701342</v>
       </c>
       <c r="AJ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AK14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AL14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AM14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AN14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AO14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AP14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AQ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AR14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AS14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AT14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AU14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AV14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AW14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AX14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AY14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AZ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="BA14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.891220645890002</v>
-      </c>
-      <c r="T15">
-        <v>3.894160553774761</v>
-      </c>
-      <c r="U15">
-        <v>1.687339605296523</v>
-      </c>
-      <c r="V15">
-        <v>0.02883756256675252</v>
-      </c>
-      <c r="W15">
-        <v>1.862609889357314</v>
-      </c>
-      <c r="X15">
-        <v>0.3317798769387315</v>
-      </c>
-      <c r="Y15">
-        <v>1.369357173039498</v>
-      </c>
-      <c r="Z15">
-        <v>1.197912858979611</v>
-      </c>
-      <c r="AA15">
-        <v>1.15809427190452</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.173141108194797</v>
+        <v>-1.194610791899997</v>
       </c>
       <c r="AC15">
-        <v>1.455651414914461</v>
+        <v>2.024355634269304</v>
       </c>
       <c r="AD15">
-        <v>1.455651414914461</v>
+        <v>3.053898946029232</v>
       </c>
       <c r="AE15">
-        <v>1.455651414914461</v>
+        <v>1.40519946540949</v>
       </c>
       <c r="AF15">
-        <v>1.455651414914461</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="AG15">
-        <v>1.455651414914461</v>
+        <v>5.715169758465</v>
       </c>
       <c r="AH15">
-        <v>1.455651414914461</v>
+        <v>3.828814763561783</v>
       </c>
       <c r="AI15">
-        <v>1.455651414914461</v>
+        <v>0.2974381310041352</v>
       </c>
       <c r="AJ15">
-        <v>1.455651414914461</v>
+        <v>2.091985819293041</v>
       </c>
       <c r="AK15">
-        <v>1.455651414914461</v>
+        <v>2.62544141464085</v>
       </c>
       <c r="AL15">
-        <v>1.455651414914461</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="AM15">
-        <v>1.455651414914461</v>
+        <v>2.749266975822984</v>
       </c>
       <c r="AN15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AO15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AP15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AQ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AR15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AS15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AT15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AU15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AV15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AW15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AX15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AY15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AZ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="BA15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.687339605296545</v>
-      </c>
-      <c r="V16">
-        <v>-0.1413199423556555</v>
-      </c>
-      <c r="W16">
-        <v>2.016108144125295</v>
-      </c>
-      <c r="X16">
-        <v>-2.079848588862154</v>
-      </c>
-      <c r="Y16">
-        <v>2.147322685428343</v>
-      </c>
-      <c r="Z16">
-        <v>0.9262553939922924</v>
-      </c>
-      <c r="AA16">
-        <v>4.206171608278875</v>
-      </c>
-      <c r="AB16">
-        <v>0.8934982674867697</v>
-      </c>
-      <c r="AC16">
-        <v>1.749048192229496</v>
-      </c>
-      <c r="AD16">
-        <v>1.727537197898665</v>
-      </c>
-      <c r="AE16">
-        <v>2.066130269500599</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>2.211901852239651</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="AG16">
-        <v>2.211901852239651</v>
+        <v>5.928146717120164</v>
       </c>
       <c r="AH16">
-        <v>2.211901852239651</v>
+        <v>3.07601938588149</v>
       </c>
       <c r="AI16">
-        <v>2.211901852239651</v>
+        <v>-2.009776081564663</v>
       </c>
       <c r="AJ16">
-        <v>2.211901852239651</v>
+        <v>0.8023688159249032</v>
       </c>
       <c r="AK16">
-        <v>2.211901852239651</v>
+        <v>6.778609849419737</v>
       </c>
       <c r="AL16">
-        <v>2.211901852239651</v>
+        <v>-5.123136062091282</v>
       </c>
       <c r="AM16">
-        <v>2.211901852239651</v>
+        <v>2.475264839201419</v>
       </c>
       <c r="AN16">
-        <v>2.211901852239651</v>
+        <v>0.06579575777907465</v>
       </c>
       <c r="AO16">
-        <v>2.211901852239651</v>
+        <v>3.119113392553619</v>
       </c>
       <c r="AP16">
-        <v>2.211901852239651</v>
+        <v>0.6994919452575576</v>
       </c>
       <c r="AQ16">
-        <v>2.211901852239651</v>
+        <v>0.3902136525336664</v>
       </c>
       <c r="AR16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AS16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AT16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AU16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AV16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AW16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AX16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AY16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AZ16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="BA16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>-2.079848588862132</v>
-      </c>
-      <c r="Y17">
-        <v>2.362248329113514</v>
-      </c>
-      <c r="Z17">
-        <v>0.8024032016000104</v>
-      </c>
-      <c r="AA17">
-        <v>6.673057635354218</v>
-      </c>
-      <c r="AB17">
-        <v>-1.194610791899997</v>
-      </c>
-      <c r="AC17">
-        <v>2.097071260293459</v>
-      </c>
-      <c r="AD17">
-        <v>2.928189816005666</v>
-      </c>
-      <c r="AE17">
-        <v>2.306826470345347</v>
-      </c>
-      <c r="AF17">
-        <v>1.979074033580819</v>
-      </c>
-      <c r="AG17">
-        <v>3.265677646667919</v>
-      </c>
-      <c r="AH17">
-        <v>3.647228437274408</v>
-      </c>
-      <c r="AI17">
-        <v>3.289483383701342</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>3.454003806423289</v>
+        <v>0.8023688159249032</v>
       </c>
       <c r="AK17">
-        <v>3.454003806423289</v>
+        <v>7.437479026318994</v>
       </c>
       <c r="AL17">
-        <v>3.454003806423289</v>
+        <v>-8.583073115451533</v>
       </c>
       <c r="AM17">
-        <v>3.454003806423289</v>
+        <v>3.88777093019641</v>
       </c>
       <c r="AN17">
-        <v>3.454003806423289</v>
+        <v>0.2740865344839749</v>
       </c>
       <c r="AO17">
-        <v>3.454003806423289</v>
+        <v>9.57101224363932</v>
       </c>
       <c r="AP17">
-        <v>3.454003806423289</v>
+        <v>0.3969573948624072</v>
       </c>
       <c r="AQ17">
-        <v>3.454003806423289</v>
+        <v>1.076435582022328</v>
       </c>
       <c r="AR17">
-        <v>3.454003806423289</v>
+        <v>-7.338081973668542</v>
       </c>
       <c r="AS17">
-        <v>3.454003806423289</v>
+        <v>-1.650648527511434</v>
       </c>
       <c r="AT17">
-        <v>3.454003806423289</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="AU17">
-        <v>3.454003806423289</v>
+        <v>-1.101033528970929</v>
       </c>
       <c r="AV17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AW17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AX17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AY17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AZ17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="BA17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>-1.194610791899997</v>
-      </c>
-      <c r="AC18">
-        <v>2.024355634269281</v>
-      </c>
-      <c r="AD18">
-        <v>3.05389894602921</v>
-      </c>
-      <c r="AE18">
-        <v>1.405199465409468</v>
-      </c>
-      <c r="AF18">
-        <v>0.8024032015999882</v>
-      </c>
-      <c r="AG18">
-        <v>5.715169758464977</v>
-      </c>
-      <c r="AH18">
-        <v>3.828814763561761</v>
-      </c>
-      <c r="AI18">
-        <v>0.297438131004113</v>
-      </c>
-      <c r="AJ18">
-        <v>2.091985819293041</v>
-      </c>
-      <c r="AK18">
-        <v>2.62544141464085</v>
-      </c>
-      <c r="AL18">
-        <v>2.777797690741424</v>
-      </c>
-      <c r="AM18">
-        <v>2.749266975822962</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>2.895789704837659</v>
+        <v>0.2740865344839305</v>
       </c>
       <c r="AO18">
-        <v>2.895789704837659</v>
+        <v>9.711183328723383</v>
       </c>
       <c r="AP18">
-        <v>2.895789704837659</v>
+        <v>-2.235060347910434E-05</v>
       </c>
       <c r="AQ18">
-        <v>2.895789704837659</v>
+        <v>2.51686114938241</v>
       </c>
       <c r="AR18">
-        <v>2.895789704837659</v>
+        <v>-18.16237400185398</v>
       </c>
       <c r="AS18">
-        <v>2.895789704837659</v>
+        <v>-0.2006752520846145</v>
       </c>
       <c r="AT18">
-        <v>2.895789704837659</v>
+        <v>0.1752798163574321</v>
       </c>
       <c r="AU18">
-        <v>2.895789704837659</v>
+        <v>1.266436499884915</v>
       </c>
       <c r="AV18">
-        <v>2.895789704837659</v>
+        <v>0.6787613333699927</v>
       </c>
       <c r="AW18">
-        <v>2.895789704837659</v>
+        <v>2.019219802844563</v>
       </c>
       <c r="AX18">
-        <v>2.895789704837659</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="AY18">
-        <v>2.895789704837659</v>
+        <v>2.738259114155683</v>
       </c>
       <c r="AZ18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
       <c r="BA18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.8024032015999882</v>
-      </c>
-      <c r="AG19">
-        <v>5.928146717120142</v>
-      </c>
-      <c r="AH19">
-        <v>3.07601938588149</v>
-      </c>
-      <c r="AI19">
-        <v>-2.009776081564674</v>
-      </c>
-      <c r="AJ19">
-        <v>0.8023688159249254</v>
-      </c>
-      <c r="AK19">
-        <v>6.778609849419781</v>
-      </c>
-      <c r="AL19">
-        <v>-5.123136062091282</v>
-      </c>
-      <c r="AM19">
-        <v>2.475264839201441</v>
-      </c>
-      <c r="AN19">
-        <v>0.06579575777909685</v>
-      </c>
-      <c r="AO19">
-        <v>3.119113392553619</v>
-      </c>
-      <c r="AP19">
-        <v>0.6994919452575576</v>
-      </c>
-      <c r="AQ19">
-        <v>0.3902136525336664</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.486919784128137</v>
+        <v>-18.16237400185397</v>
       </c>
       <c r="AS19">
-        <v>0.486919784128137</v>
+        <v>0.3102193542589893</v>
       </c>
       <c r="AT19">
-        <v>0.486919784128137</v>
+        <v>0.8957922836469567</v>
       </c>
       <c r="AU19">
-        <v>0.486919784128137</v>
+        <v>1.396505962682837</v>
       </c>
       <c r="AV19">
-        <v>0.486919784128137</v>
+        <v>-1.696610696428313</v>
       </c>
       <c r="AW19">
-        <v>0.486919784128137</v>
+        <v>3.906556425946905</v>
       </c>
       <c r="AX19">
-        <v>0.486919784128137</v>
+        <v>2.166483625738302</v>
       </c>
       <c r="AY19">
-        <v>0.486919784128137</v>
+        <v>3.147579643557918</v>
       </c>
       <c r="AZ19">
-        <v>0.486919784128137</v>
+        <v>1.643634172128272</v>
       </c>
       <c r="BA19">
-        <v>0.486919784128137</v>
+        <v>2.581716327283523</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.8023688159249032</v>
-      </c>
-      <c r="AK20">
-        <v>7.437479026319016</v>
-      </c>
-      <c r="AL20">
-        <v>-8.583073115451544</v>
-      </c>
-      <c r="AM20">
-        <v>3.88777093019641</v>
-      </c>
-      <c r="AN20">
-        <v>0.2740865344839527</v>
-      </c>
-      <c r="AO20">
-        <v>9.57101224363932</v>
-      </c>
-      <c r="AP20">
-        <v>0.3969573948624072</v>
-      </c>
-      <c r="AQ20">
-        <v>1.076435582022306</v>
-      </c>
-      <c r="AR20">
-        <v>-7.338081973668542</v>
-      </c>
-      <c r="AS20">
-        <v>-1.650648527511467</v>
-      </c>
-      <c r="AT20">
-        <v>-1.432689847121871</v>
-      </c>
-      <c r="AU20">
-        <v>-1.101033528970941</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.8339987268309312</v>
+        <v>-1.696610696428313</v>
       </c>
       <c r="AW20">
-        <v>-0.8339987268309312</v>
+        <v>4.203378578482497</v>
       </c>
       <c r="AX20">
-        <v>-0.8339987268309312</v>
+        <v>1.748821047714721</v>
       </c>
       <c r="AY20">
-        <v>-0.8339987268309312</v>
+        <v>1.674449191465355</v>
       </c>
       <c r="AZ20">
-        <v>-0.8339987268309312</v>
+        <v>-1.362365718491854</v>
       </c>
       <c r="BA20">
-        <v>-0.8339987268309312</v>
+        <v>2.939709541563884</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.2740865344839749</v>
-      </c>
-      <c r="AO21">
-        <v>9.711183328723404</v>
-      </c>
-      <c r="AP21">
-        <v>-2.235060351241103E-05</v>
-      </c>
-      <c r="AQ21">
-        <v>2.516861149382388</v>
-      </c>
-      <c r="AR21">
-        <v>-18.16237400185398</v>
-      </c>
-      <c r="AS21">
-        <v>-0.2006752520846367</v>
-      </c>
-      <c r="AT21">
-        <v>0.1752798163574099</v>
-      </c>
-      <c r="AU21">
-        <v>1.266436499884915</v>
-      </c>
-      <c r="AV21">
-        <v>0.6787613333699927</v>
-      </c>
-      <c r="AW21">
-        <v>2.019219802844563</v>
-      </c>
-      <c r="AX21">
-        <v>2.033479419175133</v>
-      </c>
-      <c r="AY21">
-        <v>2.738259114155683</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>2.721554796335801</v>
+        <v>-1.362365718491887</v>
       </c>
       <c r="BA21">
-        <v>2.721554796335801</v>
+        <v>3.205589308837742</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-18.16237400185397</v>
-      </c>
-      <c r="AS22">
-        <v>0.3102193542589671</v>
-      </c>
-      <c r="AT22">
-        <v>0.8957922836469567</v>
-      </c>
-      <c r="AU22">
-        <v>1.396505962682815</v>
-      </c>
-      <c r="AV22">
-        <v>-1.696610696428325</v>
-      </c>
-      <c r="AW22">
-        <v>3.906556425946905</v>
-      </c>
-      <c r="AX22">
-        <v>2.166483625738302</v>
-      </c>
-      <c r="AY22">
-        <v>3.147579643557941</v>
-      </c>
-      <c r="AZ22">
-        <v>1.643634172128272</v>
-      </c>
-      <c r="BA22">
-        <v>2.581716327283545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>-1.696610696428313</v>
-      </c>
-      <c r="AW23">
-        <v>4.203378578482475</v>
-      </c>
-      <c r="AX23">
-        <v>1.748821047714721</v>
-      </c>
-      <c r="AY23">
-        <v>1.674449191465355</v>
-      </c>
-      <c r="AZ23">
-        <v>-1.362365718491865</v>
-      </c>
-      <c r="BA23">
-        <v>2.939709541563884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-1.362365718491854</v>
-      </c>
-      <c r="BA24">
-        <v>3.205589308837764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>3.311198277644523</v>
       </c>
+      <c r="BB3">
+        <v>3.311198277644523</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.295764853811622</v>
       </c>
+      <c r="BB4">
+        <v>2.295764853811622</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>0.9560359274609631</v>
       </c>
+      <c r="BB5">
+        <v>0.9560359274609631</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.33431011236409</v>
       </c>
+      <c r="BB6">
+        <v>1.33431011236409</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.8625324730765715</v>
       </c>
+      <c r="BB7">
+        <v>0.8625324730765715</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.127663699749437</v>
       </c>
+      <c r="BB8">
+        <v>1.127663699749437</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.036722793063217</v>
       </c>
+      <c r="BB9">
+        <v>2.036722793063217</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>4.211110015923047</v>
       </c>
+      <c r="BB10">
+        <v>4.211110015923047</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>1.551589743072856</v>
       </c>
+      <c r="BB11">
+        <v>1.551589743072856</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.455651414914461</v>
       </c>
+      <c r="BB12">
+        <v>1.455651414914461</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>2.211901852239651</v>
       </c>
+      <c r="BB13">
+        <v>2.211901852239651</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>3.454003806423267</v>
       </c>
+      <c r="BB14">
+        <v>3.454003806423267</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>2.895789704837681</v>
       </c>
+      <c r="BB15">
+        <v>2.895789704837681</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>0.486919784128137</v>
       </c>
+      <c r="BB16">
+        <v>0.486919784128137</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.8339987268308979</v>
       </c>
+      <c r="BB17">
+        <v>-0.8339987268308979</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>2.721554796335779</v>
       </c>
+      <c r="BB18">
+        <v>2.721554796335779</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.581716327283523</v>
       </c>
+      <c r="BB19">
+        <v>2.622852459381209</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>2.939709541563884</v>
       </c>
+      <c r="BB20">
+        <v>2.689750575689809</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>3.205589308837742</v>
       </c>
+      <c r="BB21">
+        <v>3.108260574154809</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
